--- a/TestData/LoginTest.xlsx
+++ b/TestData/LoginTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="2475" windowWidth="16020" windowHeight="6480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Username</t>
   </si>
@@ -30,17 +30,35 @@
     <t>Nawaz123</t>
   </si>
   <si>
+    <t>Aalahazrat@25</t>
+  </si>
+  <si>
+    <t>Fatima</t>
+  </si>
+  <si>
+    <t>Usman</t>
+  </si>
+  <si>
     <t>shanawazmansuri</t>
   </si>
   <si>
-    <t>Aalahazrat@25</t>
+    <t>Noorma</t>
+  </si>
+  <si>
+    <t>Demo123</t>
+  </si>
+  <si>
+    <t>Aisha</t>
+  </si>
+  <si>
+    <t>Zehra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,16 +66,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -65,12 +97,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -378,46 +427,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/TestData/LoginTest.xlsx
+++ b/TestData/LoginTest.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2475" windowWidth="16020" windowHeight="6480" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2475" windowWidth="16020" windowHeight="6480"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Log" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -414,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -450,10 +450,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -463,7 +459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
